--- a/Docs/MC - Tablas de Datos Lab 4-5.xlsx
+++ b/Docs/MC - Tablas de Datos Lab 4-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc/Documents/GitHub/EDA/Reto1-G04/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEBD3D18-DBCC-494B-9E1B-9D93992A8FC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED9D0E-DF57-EC4A-ACB4-12AD0DA55BEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="6" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="7" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -149,10 +155,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -160,56 +169,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -498,6 +457,56 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -637,13 +646,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14371583078535222"/>
+          <c:y val="7.6798160218743139E-2"/>
+          <c:w val="0.82743668693471151"/>
+          <c:h val="0.71383245245089988"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -695,10 +714,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0713157561014977E-2"/>
+                  <c:y val="4.1501630478008429E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -724,7 +749,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -775,34 +800,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>637.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>2713.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>10936.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>43601.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>179375.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>771539.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +905,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -943,34 +956,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>670.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2916.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10710.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>44929.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>186474.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>716213.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>2890360.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,10 +1034,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5048247080388744E-2"/>
+                  <c:y val="-7.7200190885230252E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1059,7 +1070,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1074,10 +1085,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5281239552230196E-2"/>
+                  <c:y val="-4.2967310904318781E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1103,7 +1121,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1154,34 +1172,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>37.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>85.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>192.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>431.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1017.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>2438.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>5651.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>10518.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>35082.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>54937.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,9 +1228,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1249,10 +1265,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14973057054501884"/>
+                  <c:y val="2.369377616790902E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1278,7 +1301,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1329,34 +1352,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>34.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>65.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>134.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>302.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>648.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>1382.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>3079.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>6701.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>14646.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>20441.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,10 +1447,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11261582200193004"/>
+                  <c:y val="0.14692803696632911"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1453,7 +1483,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1504,34 +1534,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>34.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>66.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>143.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>292.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>643.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>1357.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>2925.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>6243.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>13401.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>20276.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,7 +1661,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1669,7 +1699,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1679,7 +1709,9 @@
       <c:valAx>
         <c:axId val="1833162896"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1753,7 +1785,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1791,7 +1823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1833,7 +1865,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1870,7 +1902,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1946,7 +1978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2014,10 +2046,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5761474531800945E-2"/>
+                  <c:y val="-1.8156256531749376E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2043,7 +2082,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2094,34 +2133,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>45575.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>334934.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>2734041.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,10 +2199,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12696011802816648"/>
+                  <c:y val="5.4514546479034441E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2210,7 +2235,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2261,34 +2286,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>41042.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>335315.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>2721915.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,10 +2352,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2455743469844684E-2"/>
+                  <c:y val="-2.2218478125245852E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2377,7 +2388,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2428,34 +2439,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>2074.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>11181.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>53057.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>238796.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>1119501.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,10 +2519,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7674807792937348E-2"/>
+                  <c:y val="1.5361800303112908E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2552,7 +2555,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2603,34 +2606,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>1883.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>8028.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>34889.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>153290.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>684359.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2686,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2727,7 +2716,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2778,34 +2767,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>225.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>882.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>3512.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>14143.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>57111.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>232006.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>930163.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2905,7 +2885,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2943,7 +2923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2953,6 +2933,7 @@
       <c:valAx>
         <c:axId val="1833162896"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3027,7 +3008,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3065,7 +3046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -3107,7 +3088,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3144,7 +3125,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3220,7 +3201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3278,7 +3259,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3307,7 +3289,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3358,34 +3340,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>637.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>2713.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>10936.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>43601.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>179375.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>771539.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3445,10 +3415,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0494239872726076E-2"/>
+                  <c:y val="-2.2001541045596896E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3474,7 +3451,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3525,34 +3502,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>45575.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>334934.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>2734041.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,7 +3608,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3690,7 +3646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3700,6 +3656,7 @@
       <c:valAx>
         <c:axId val="1328121328"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3769,7 +3726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3807,7 +3764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3849,7 +3806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3886,7 +3843,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3957,7 +3914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4015,7 +3972,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4044,7 +4002,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4095,34 +4053,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>670.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2916.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10710.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>44929.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>186474.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>716213.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>2890360.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4182,7 +4131,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4211,7 +4161,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4262,34 +4212,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>41042.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>335315.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>2721915.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4389,7 +4318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4427,7 +4356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4437,6 +4366,7 @@
       <c:valAx>
         <c:axId val="1328121328"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4506,7 +4436,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4544,7 +4474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4586,7 +4516,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4623,7 +4553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4694,7 +4624,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4752,7 +4682,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4781,7 +4711,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4832,34 +4762,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>37.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>85.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>192.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>431.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1017.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>2438.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>5651.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>10518.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>35082.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>54937.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4849,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4948,7 +4879,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4999,34 +4930,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>2074.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>11181.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>53057.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>238796.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>1119501.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5126,7 +5042,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5164,7 +5080,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5174,6 +5090,7 @@
       <c:valAx>
         <c:axId val="1328121328"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5243,7 +5160,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5281,7 +5198,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -5323,7 +5240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5360,7 +5277,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5439,7 +5356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5497,7 +5414,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5526,7 +5444,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5577,34 +5495,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>34.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>65.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>134.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>302.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>648.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>1382.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>3079.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>6701.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>14646.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>20441.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5664,7 +5582,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5693,7 +5612,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5744,34 +5663,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>1883.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>8028.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>34889.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>153290.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>684359.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5871,7 +5775,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5909,7 +5813,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5919,6 +5823,7 @@
       <c:valAx>
         <c:axId val="1328121328"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5988,7 +5893,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6026,7 +5931,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6068,7 +5973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6105,7 +6010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6184,7 +6089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6272,7 +6177,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6323,34 +6228,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>34.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>66.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>143.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>292.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>643.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>1357.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>2925.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>6243.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>13401.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>20276.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6440,7 +6345,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6491,34 +6396,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>225.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>882.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>3512.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>14143.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>57111.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>232006.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>930163.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6618,7 +6514,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6656,7 +6552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -6666,6 +6562,7 @@
       <c:valAx>
         <c:axId val="1328121328"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6735,7 +6632,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6773,7 +6670,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6815,7 +6712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6852,7 +6749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -10748,7 +10645,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="162" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10759,7 +10656,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="163" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10770,7 +10667,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10781,7 +10678,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10792,7 +10689,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10803,7 +10700,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10814,7 +10711,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10825,7 +10722,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8664049" cy="6279877"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10858,7 +10755,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8679962" cy="6291385"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10891,7 +10788,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676718" cy="6291832"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10924,7 +10821,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676718" cy="6291832"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10957,7 +10854,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676718" cy="6291832"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10990,7 +10887,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676718" cy="6291832"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11023,7 +10920,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676718" cy="6291832"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11060,21 +10957,21 @@
     <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Quick Sort [ms]" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Quick Sort [ms]" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A14:F24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="Quick Sort [ms]" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{21628D13-D0BA-41D1-8E51-AB02437FBDE5}" name="Merge Sort [ms]" dataDxfId="0"/>
   </tableColumns>
@@ -11382,19 +11279,19 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.1171875" customWidth="1"/>
+    <col min="5" max="6" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -11414,224 +11311,193 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="4">
-        <v>15.7</v>
+      <c r="B2" s="5">
+        <v>637.6</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
+      <c r="C2" s="5">
+        <v>670.63</v>
       </c>
-      <c r="D2" s="4">
-        <v>4</v>
+      <c r="D2" s="5">
+        <v>37.69</v>
       </c>
-      <c r="E2" s="5">
-        <v>20</v>
+      <c r="E2" s="4">
+        <v>34.07</v>
       </c>
-      <c r="F2" s="5">
-        <v>60</v>
+      <c r="F2" s="4">
+        <v>34.380000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
-      <c r="B3" s="4">
-        <v>30</v>
+      <c r="B3" s="5">
+        <v>2713.14</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
+      <c r="C3" s="5">
+        <v>2916.61</v>
       </c>
-      <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+      <c r="D3" s="5">
+        <v>85.1</v>
       </c>
-      <c r="E3" s="5">
-        <v>40</v>
+      <c r="E3" s="4">
+        <v>65.27</v>
       </c>
-      <c r="F3" s="5">
-        <v>90</v>
+      <c r="F3" s="4">
+        <v>66.27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
-      <c r="B4" s="4">
-        <v>45</v>
+      <c r="B4" s="5">
+        <v>10936.16</v>
       </c>
-      <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
+      <c r="C4" s="6">
+        <v>10710.49</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+      <c r="D4" s="5">
+        <v>192.73</v>
       </c>
-      <c r="E4" s="5">
-        <v>60</v>
+      <c r="E4" s="4">
+        <v>134.46</v>
       </c>
-      <c r="F4" s="5">
-        <v>120</v>
+      <c r="F4" s="4">
+        <v>143.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
-      <c r="B5" s="4">
-        <v>60</v>
+      <c r="B5" s="5">
+        <v>43601.2</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+      <c r="C5" s="5">
+        <v>44929.52</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="D5" s="5">
+        <v>431.34</v>
       </c>
-      <c r="E5" s="5">
-        <v>80</v>
+      <c r="E5" s="4">
+        <v>302.79000000000002</v>
       </c>
-      <c r="F5" s="5">
-        <v>150</v>
+      <c r="F5" s="4">
+        <v>292.93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
-      <c r="B6" s="4">
-        <v>75</v>
+      <c r="B6" s="5">
+        <v>179375.1</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="C6" s="6">
+        <v>186474.09</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="D6" s="5">
+        <v>1017.22</v>
       </c>
-      <c r="E6" s="5">
-        <v>100</v>
+      <c r="E6" s="4">
+        <v>648.21</v>
       </c>
-      <c r="F6" s="5">
-        <v>180</v>
+      <c r="F6" s="4">
+        <v>643.29999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
-      <c r="B7" s="4">
-        <v>90</v>
+      <c r="B7" s="5">
+        <v>771539.28</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+      <c r="C7" s="5">
+        <v>716213.22</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="D7" s="5">
+        <v>2438.77</v>
       </c>
-      <c r="E7" s="5">
-        <v>120</v>
+      <c r="E7" s="4">
+        <v>1382.01</v>
       </c>
-      <c r="F7" s="5">
-        <v>210</v>
+      <c r="F7" s="4">
+        <v>1357.01</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
-      <c r="B8" s="4">
-        <v>105</v>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>2890360.03</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+      <c r="D8" s="5">
+        <v>5651.87</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+      <c r="E8" s="4">
+        <v>3079.84</v>
       </c>
-      <c r="E8" s="5">
-        <v>140</v>
-      </c>
-      <c r="F8" s="5">
-        <v>240</v>
+      <c r="F8" s="4">
+        <v>2925.99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>120</v>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>10518.68</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="E9" s="4">
+        <v>6701.04</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E9" s="5">
-        <v>160</v>
-      </c>
-      <c r="F9" s="5">
-        <v>270</v>
+      <c r="F9" s="4">
+        <v>6243.53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>135</v>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>35082.15</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+      <c r="E10" s="4">
+        <v>14646.49</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E10" s="5">
-        <v>180</v>
-      </c>
-      <c r="F10" s="5">
-        <v>300</v>
+      <c r="F10" s="4">
+        <v>13401.32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
-      <c r="B11" s="4">
-        <v>150</v>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>54937.9</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
+      <c r="E11" s="4">
+        <v>20441.02</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>330</v>
+      <c r="F11" s="4">
+        <v>20276.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -11651,222 +11517,151 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
-      <c r="B15" s="4">
-        <v>50</v>
+      <c r="B15" s="5">
+        <v>45575.74</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
+      <c r="C15" s="5">
+        <v>41042.89</v>
       </c>
-      <c r="D15" s="4">
-        <v>35</v>
+      <c r="D15" s="5">
+        <v>2074.96</v>
       </c>
-      <c r="E15" s="5">
-        <v>30</v>
+      <c r="E15" s="4">
+        <v>1883.39</v>
       </c>
-      <c r="F15" s="5">
-        <v>70</v>
+      <c r="F15" s="4">
+        <v>225.23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
-      <c r="B16" s="4">
-        <v>60</v>
+      <c r="B16" s="5">
+        <v>334934.56</v>
       </c>
-      <c r="C16" s="4">
-        <v>4</v>
+      <c r="C16" s="5">
+        <v>335315.18</v>
       </c>
-      <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+      <c r="D16" s="5">
+        <v>11181.7</v>
       </c>
-      <c r="E16" s="5">
-        <v>60</v>
+      <c r="E16" s="4">
+        <v>8028.28</v>
       </c>
-      <c r="F16" s="5">
-        <v>90</v>
+      <c r="F16" s="4">
+        <v>882.33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
-      <c r="B17" s="4">
-        <v>70</v>
+      <c r="B17" s="5">
+        <v>2734041.4</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
+      <c r="C17" s="5">
+        <v>2721915.21</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+      <c r="D17" s="5">
+        <v>53057.86</v>
       </c>
-      <c r="E17" s="5">
-        <v>90</v>
+      <c r="E17" s="4">
+        <v>34889.46</v>
       </c>
-      <c r="F17" s="5">
-        <v>110</v>
+      <c r="F17" s="4">
+        <v>3512.46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>238796.86</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="E18" s="4">
+        <v>153290.22</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="E18" s="5">
-        <v>120</v>
-      </c>
-      <c r="F18" s="5">
-        <v>130</v>
+      <c r="F18" s="4">
+        <v>14143.59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>1119501.94</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="E19" s="4">
+        <v>684359.3</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="E19" s="5">
-        <v>150</v>
-      </c>
-      <c r="F19" s="5">
-        <v>150</v>
+      <c r="F19" s="4">
+        <v>57111.74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="E20" s="5">
-        <v>180</v>
-      </c>
-      <c r="F20" s="5">
-        <v>170</v>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>232006.7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="E21" s="5">
-        <v>210</v>
-      </c>
-      <c r="F21" s="5">
-        <v>190</v>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <v>930163.59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="E22" s="5">
-        <v>240</v>
-      </c>
-      <c r="F22" s="5">
-        <v>210</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="E23" s="5">
-        <v>270</v>
-      </c>
-      <c r="F23" s="5">
-        <v>230</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
-      <c r="E24" s="5">
-        <v>300</v>
-      </c>
-      <c r="F24" s="5">
-        <v>250</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11878,6 +11673,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c10596efcc8303131ba000bf7988b65d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88645b4f568d2e9f6d2a1da3b5a5f323" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12088,7 +11889,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12097,25 +11898,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12130,4 +11913,31 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>